--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y132"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="R131" s="2" t="inlineStr"/>
     </row>
-    <row r="132">
+    <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
           <t>A 34445-2023</t>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8939,6 +8939,63 @@
         <v>0</v>
       </c>
       <c r="R132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A 42742-2023</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68153-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68153-2019.xlsx", "A 68153-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68153-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68153-2019.png", "A 68153-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68153-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68153-2019.docx", "A 68153-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68153-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68153-2019.docx", "A 68153-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68153-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68153-2019.docx", "A 68153-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68153-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68153-2019.docx", "A 68153-2019")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22060-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22060-2022.xlsx", "A 22060-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22060-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22060-2022.png", "A 22060-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22060-2022.docx", "A 22060-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22060-2022.docx", "A 22060-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22060-2022.docx", "A 22060-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22060-2022.docx", "A 22060-2022")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 15265-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 15265-2023.xlsx", "A 15265-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 15265-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 15265-2023.png", "A 15265-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 15265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 15265-2023.docx", "A 15265-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 15265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 15265-2023.docx", "A 15265-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 15265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 15265-2023.docx", "A 15265-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 15265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 15265-2023.docx", "A 15265-2023")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 25512-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 25512-2022.xlsx", "A 25512-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 25512-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 25512-2022.png", "A 25512-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 25512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 25512-2022.docx", "A 25512-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 25512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 25512-2022.docx", "A 25512-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 25512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 25512-2022.docx", "A 25512-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 25512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 25512-2022.docx", "A 25512-2022")</f>
         <v/>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,27 +1006,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22064-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22064-2022.xlsx", "A 22064-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22064-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22064-2022.png", "A 22064-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22064-2022.docx", "A 22064-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22064-2022.docx", "A 22064-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22064-2022.docx", "A 22064-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22064-2022.docx", "A 22064-2022")</f>
         <v/>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,27 +1095,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 36119-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 36119-2023.xlsx", "A 36119-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 36119-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 36119-2023.png", "A 36119-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 36119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 36119-2023.docx", "A 36119-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 36119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 36119-2023.docx", "A 36119-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 36119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 36119-2023.docx", "A 36119-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 36119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 36119-2023.docx", "A 36119-2023")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,27 +1183,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68127-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68127-2019.xlsx", "A 68127-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68127-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68127-2019.png", "A 68127-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68127-2019.docx", "A 68127-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68127-2019.docx", "A 68127-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68127-2019.docx", "A 68127-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68127-2019.docx", "A 68127-2019")</f>
         <v/>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,27 +1271,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 12577-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 12577-2023.xlsx", "A 12577-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 12577-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 12577-2023.png", "A 12577-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 12577-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 12577-2023.docx", "A 12577-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 12577-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 12577-2023.docx", "A 12577-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 12577-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 12577-2023.docx", "A 12577-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 12577-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 12577-2023.docx", "A 12577-2023")</f>
         <v/>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,27 +1358,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 3552-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 3552-2023.xlsx", "A 3552-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 3552-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 3552-2023.png", "A 3552-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 3552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 3552-2023.docx", "A 3552-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 3552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 3552-2023.docx", "A 3552-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 3552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 3552-2023.docx", "A 3552-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 3552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 3552-2023.docx", "A 3552-2023")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,27 +1444,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4952-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4952-2019.xlsx", "A 4952-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4952-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4952-2019.png", "A 4952-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4952-2019.docx", "A 4952-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4952-2019.docx", "A 4952-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4952-2019.docx", "A 4952-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4952-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4952-2019.docx", "A 4952-2019")</f>
         <v/>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,27 +1530,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4124-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4124-2020.xlsx", "A 4124-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4124-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4124-2020.png", "A 4124-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4124-2020.docx", "A 4124-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4124-2020.docx", "A 4124-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4124-2020.docx", "A 4124-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4124-2020.docx", "A 4124-2020")</f>
         <v/>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,27 +1616,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4266-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4266-2020.xlsx", "A 4266-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4266-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4266-2020.png", "A 4266-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4266-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4266-2020.docx", "A 4266-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4266-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4266-2020.docx", "A 4266-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4266-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4266-2020.docx", "A 4266-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4266-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4266-2020.docx", "A 4266-2020")</f>
         <v/>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,27 +1702,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 24751-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 24751-2020.xlsx", "A 24751-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 24751-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 24751-2020.png", "A 24751-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 24751-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 24751-2020.docx", "A 24751-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 24751-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 24751-2020.docx", "A 24751-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 24751-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 24751-2020.docx", "A 24751-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 24751-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 24751-2020.docx", "A 24751-2020")</f>
         <v/>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 46-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 46-2022.xlsx", "A 46-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 46-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 46-2022.png", "A 46-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 46-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 46-2022.docx", "A 46-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 46-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 46-2022.docx", "A 46-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 46-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 46-2022.docx", "A 46-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 46-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 46-2022.docx", "A 46-2022")</f>
         <v/>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,27 +1884,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 60-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 60-2022.xlsx", "A 60-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 60-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 60-2022.png", "A 60-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 60-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 60-2022.docx", "A 60-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 60-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 60-2022.docx", "A 60-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 60-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 60-2022.docx", "A 60-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 60-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 60-2022.docx", "A 60-2022")</f>
         <v/>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,27 +1970,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22061-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 22061-2022.xlsx", "A 22061-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22061-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 22061-2022.png", "A 22061-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 22061-2022.docx", "A 22061-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 22061-2022.docx", "A 22061-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 22061-2022.docx", "A 22061-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 22061-2022.docx", "A 22061-2022")</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2055,27 +2055,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4921-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4921-2019.xlsx", "A 4921-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4921-2019.png", "A 4921-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4921-2019.docx", "A 4921-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4921-2019.docx", "A 4921-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4921-2019.docx", "A 4921-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4921-2019.docx", "A 4921-2019")</f>
         <v/>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2140,27 +2140,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4674-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 4674-2019.xlsx", "A 4674-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4674-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 4674-2019.png", "A 4674-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 4674-2019.docx", "A 4674-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 4674-2019.docx", "A 4674-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 4674-2019.docx", "A 4674-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 4674-2019.docx", "A 4674-2019")</f>
         <v/>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2225,27 +2225,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68107-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68107-2019.xlsx", "A 68107-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68107-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68107-2019.png", "A 68107-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68107-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68107-2019.docx", "A 68107-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68107-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68107-2019.docx", "A 68107-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68107-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68107-2019.docx", "A 68107-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68107-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68107-2019.docx", "A 68107-2019")</f>
         <v/>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2310,27 +2310,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68108-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 68108-2019.xlsx", "A 68108-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68108-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 68108-2019.png", "A 68108-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68108-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 68108-2019.docx", "A 68108-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68108-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 68108-2019.docx", "A 68108-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68108-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 68108-2019.docx", "A 68108-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68108-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 68108-2019.docx", "A 68108-2019")</f>
         <v/>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,27 +2400,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 41934-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 41934-2021.xlsx", "A 41934-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 41934-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 41934-2021.png", "A 41934-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 41934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 41934-2021.docx", "A 41934-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 41934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 41934-2021.docx", "A 41934-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 41934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 41934-2021.docx", "A 41934-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 41934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 41934-2021.docx", "A 41934-2021")</f>
         <v/>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2490,27 +2490,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 131-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 131-2022.xlsx", "A 131-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 131-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 131-2022.png", "A 131-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 131-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 131-2022.docx", "A 131-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 131-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 131-2022.docx", "A 131-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 131-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 131-2022.docx", "A 131-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 131-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 131-2022.docx", "A 131-2022")</f>
         <v/>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2580,27 +2580,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 21-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 21-2022.xlsx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 21-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 21-2022.png", "A 21-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 21-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 21-2022.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 21-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 21-2022.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 21-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 21-2022.docx", "A 21-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 21-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 21-2022.docx", "A 21-2022")</f>
         <v/>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2665,27 +2665,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 8500-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 8500-2022.xlsx", "A 8500-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 8500-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 8500-2022.png", "A 8500-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 8500-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 8500-2022.docx", "A 8500-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 8500-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 8500-2022.docx", "A 8500-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 8500-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 8500-2022.docx", "A 8500-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 8500-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 8500-2022.docx", "A 8500-2022")</f>
         <v/>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,27 +2750,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 9445-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 9445-2022.xlsx", "A 9445-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 9445-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 9445-2022.png", "A 9445-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 9445-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 9445-2022.docx", "A 9445-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 9445-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 9445-2022.docx", "A 9445-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 9445-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 9445-2022.docx", "A 9445-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 9445-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 9445-2022.docx", "A 9445-2022")</f>
         <v/>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2835,27 +2835,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 9747-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 9747-2022.xlsx", "A 9747-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 9747-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 9747-2022.png", "A 9747-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 9747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 9747-2022.docx", "A 9747-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 9747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 9747-2022.docx", "A 9747-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 9747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 9747-2022.docx", "A 9747-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 9747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 9747-2022.docx", "A 9747-2022")</f>
         <v/>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2920,27 +2920,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 7890-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 7890-2023.xlsx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 7890-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 7890-2023.png", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 7890-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 7890-2023.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 7890-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 7890-2023.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 7890-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 7890-2023.docx", "A 7890-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 7890-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 7890-2023.docx", "A 7890-2023")</f>
         <v/>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3005,27 +3005,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 11244-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/artfynd/A 11244-2023.xlsx", "A 11244-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 11244-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/kartor/A 11244-2023.png", "A 11244-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 11244-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomål/A 11244-2023.docx", "A 11244-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 11244-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/klagomålsmail/A 11244-2023.docx", "A 11244-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 11244-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsyn/A 11244-2023.docx", "A 11244-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 11244-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALLENTUNA/tillsynsmail/A 11244-2023.docx", "A 11244-2023")</f>
         <v/>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="R132" s="2" t="inlineStr"/>
     </row>
-    <row r="133">
+    <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
           <t>A 42742-2023</t>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8996,6 +8996,120 @@
         <v>0</v>
       </c>
       <c r="R133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>A 45499-2023</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>A 45496-2023</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>VALLENTUNA</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt VALLENTUNA.xlsx
+++ b/Översikt VALLENTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44711</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45019</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44732</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43817</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44950</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43486</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43857</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43978</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43486</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43486</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43817</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43817</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>44425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44560</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44613</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44616</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44973</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43651</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43651</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43706</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43857</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43871</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43871</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43871</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43942</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43983</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44158</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44172</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44187</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44246</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44250</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44279</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44365</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44381</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44400</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44428</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44446</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44465</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44581</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44597</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44603</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44618</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44655</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44742</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44923</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45000</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45019</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45050</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45071</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45078</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45086</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45107</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45139</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45139</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45139</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45181</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45194</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45194</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
